--- a/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2025/NhapKho/Thang01/NKBH_NgocHoan_030125.xlsx
+++ b/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2025/NhapKho/Thang01/NKBH_NgocHoan_030125.xlsx
@@ -15,7 +15,7 @@
     <sheet name="BM.01" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BM.01!$A$1:$M$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BM.01!$A$1:$L$17</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -60,15 +60,9 @@
     <t>Lý do nhập kho</t>
   </si>
   <si>
-    <t>Nguyễn Thị Hoa</t>
-  </si>
-  <si>
     <t>Số Lượng</t>
   </si>
   <si>
-    <t xml:space="preserve">Bộ phận/ Phòng ban: Sản xuất </t>
-  </si>
-  <si>
     <t>Trần Thị Thu Hà</t>
   </si>
   <si>
@@ -84,15 +78,9 @@
     <t>Số: PNK : 01</t>
   </si>
   <si>
-    <t>Họ và tên người đề nghị: Nguyễn Minh Tùng</t>
-  </si>
-  <si>
     <t>Chiếc</t>
   </si>
   <si>
-    <t>Thiết bị lỗi đổi bảo hành</t>
-  </si>
-  <si>
     <t>Nguyễn Minh Tùng</t>
   </si>
   <si>
@@ -102,26 +90,39 @@
     <t>TP.PT Sản Phẩm</t>
   </si>
   <si>
-    <t>Tên Khách hàng: Đại lý Ngọc Hoàn</t>
-  </si>
-  <si>
-    <t>Ngày: 03 Tháng 01 Năm 2025</t>
-  </si>
-  <si>
-    <t>Lỗi nguồn, không quẹt được thẻ RFID, ver Streamax</t>
-  </si>
-  <si>
     <t>Card Reader</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi đã đổi bảo hành</t>
+  </si>
+  <si>
+    <t>Họ tên người đề nghị: Nguyễn Minh Tùng</t>
+  </si>
+  <si>
+    <t>Bộ phận/ phòng ban: Sản xuất - bảo hành</t>
+  </si>
+  <si>
+    <t>Tên khách hàng: Đại lý Ngọc Hoàn</t>
+  </si>
+  <si>
+    <t>Ngày 03 tháng 01 năm 2025</t>
+  </si>
+  <si>
+    <t>Lỗi nguồn, không quẹt được thẻ RFID, ver Streamax + dây kết nối</t>
+  </si>
+  <si>
+    <t>Đặng Ngọc Mai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="@*."/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -164,40 +165,62 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <name val="Times New Roman"/>
@@ -310,7 +333,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -320,88 +343,102 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -433,8 +470,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>159297</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -480,13 +517,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>92294</xdr:colOff>
+      <xdr:colOff>131708</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>154043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6569</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>289035</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>118241</xdr:rowOff>
     </xdr:to>
@@ -511,8 +548,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="92294" y="154043"/>
-          <a:ext cx="1687896" cy="476577"/>
+          <a:off x="131708" y="154043"/>
+          <a:ext cx="1234637" cy="476577"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -814,375 +851,393 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="6.85546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="7.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="23" t="s">
+    <row r="1" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="31" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="31"/>
-    </row>
-    <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="31" t="s">
+      <c r="L1" s="34"/>
+    </row>
+    <row r="2" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="31"/>
-    </row>
-    <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="31" t="s">
+      <c r="L2" s="34"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="31"/>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="13"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+    </row>
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="33"/>
+      <c r="L8" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="10">
+        <v>2</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="38"/>
+      <c r="L9" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5" t="s">
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="23"/>
+    </row>
+    <row r="13" spans="1:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="39"/>
+    </row>
+    <row r="15" spans="1:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="1:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="33"/>
-      <c r="M9" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="22"/>
-    </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="E1:K3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A11:E11"/>
+  <mergeCells count="28">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="D1:J3"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="1.2" bottom="1.2" header="0" footer="0"/>
